--- a/runs/run893/NotionalETEOutput893.xlsx
+++ b/runs/run893/NotionalETEOutput893.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER2_State_Update</t>
+    <t>Missile_HELLMASKER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2_369.MISSILE_BRAVER2_369</t>
+    <t>MISSILE_HELLMASKER3_149.MISSILE_HELLMASKER3_149</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2</t>
+    <t>MISSILE_HELLMASKER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1550.5277119059</v>
+        <v>-1545.373161381711</v>
       </c>
       <c r="J2">
-        <v>2055.063994030028</v>
+        <v>1950.611941491645</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1487.423045794041</v>
+        <v>-1423.044623402424</v>
       </c>
       <c r="J3">
-        <v>1909.242948832172</v>
+        <v>1857.148984790979</v>
       </c>
       <c r="K3">
-        <v>308.6113663933703</v>
+        <v>292.7444641281796</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1428.903606039055</v>
+        <v>-1463.288648891588</v>
       </c>
       <c r="J4">
-        <v>1830.326119461509</v>
+        <v>1888.619239832373</v>
       </c>
       <c r="K4">
-        <v>580.4501278605987</v>
+        <v>619.3146619281598</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1356.702803051059</v>
+        <v>-1397.461084236484</v>
       </c>
       <c r="J5">
-        <v>1835.471330396761</v>
+        <v>1868.855712503872</v>
       </c>
       <c r="K5">
-        <v>896.0459634875887</v>
+        <v>894.0839365872264</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1350.786424172261</v>
+        <v>-1422.73564507623</v>
       </c>
       <c r="J6">
-        <v>1882.613227068024</v>
+        <v>1800.144073184547</v>
       </c>
       <c r="K6">
-        <v>1155.542670832228</v>
+        <v>1099.312159990467</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1313.924924410487</v>
+        <v>-1303.899764784422</v>
       </c>
       <c r="J7">
-        <v>1823.557423680439</v>
+        <v>1814.546908526605</v>
       </c>
       <c r="K7">
-        <v>1356.759402937589</v>
+        <v>1411.005214803207</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1286.559344308744</v>
+        <v>-1279.203707080121</v>
       </c>
       <c r="J8">
-        <v>1785.398716481161</v>
+        <v>1686.807584230596</v>
       </c>
       <c r="K8">
-        <v>1559.613906870794</v>
+        <v>1624.905220660911</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.0011549501385</v>
+        <v>-102.584813631467</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1225.369514800129</v>
+        <v>-1271.700235449784</v>
       </c>
       <c r="J9">
-        <v>1740.835305817769</v>
+        <v>1684.594334922196</v>
       </c>
       <c r="K9">
-        <v>1813.639582914071</v>
+        <v>1746.276350001345</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>208.987792507587</v>
+        <v>224.6436184779884</v>
       </c>
       <c r="G10">
-        <v>-83.99407779029988</v>
+        <v>-87.38471204736645</v>
       </c>
       <c r="H10">
-        <v>840.1189283996292</v>
+        <v>850.3878369516108</v>
       </c>
       <c r="I10">
-        <v>-1301.060976409678</v>
+        <v>-1206.455790499613</v>
       </c>
       <c r="J10">
-        <v>1660.56738397716</v>
+        <v>1641.482935789408</v>
       </c>
       <c r="K10">
-        <v>1927.65047801872</v>
+        <v>2061.974970311127</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.6886049097185</v>
+        <v>173.2122479909422</v>
       </c>
       <c r="G11">
-        <v>-65.14003846113211</v>
+        <v>-63.73980830082264</v>
       </c>
       <c r="H11">
-        <v>1081.831865786015</v>
+        <v>1062.590901709479</v>
       </c>
       <c r="I11">
-        <v>-1151.494263478842</v>
+        <v>-1231.116633385619</v>
       </c>
       <c r="J11">
-        <v>1576.679917363311</v>
+        <v>1604.263723662998</v>
       </c>
       <c r="K11">
-        <v>2244.776965781024</v>
+        <v>2094.857779450734</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.822228119626</v>
+        <v>143.0723925620965</v>
       </c>
       <c r="G12">
-        <v>-50.4028132043037</v>
+        <v>-52.59140891791716</v>
       </c>
       <c r="H12">
-        <v>1124.272820030973</v>
+        <v>1153.508467006005</v>
       </c>
       <c r="I12">
-        <v>-1173.67453363592</v>
+        <v>-1164.961825008122</v>
       </c>
       <c r="J12">
-        <v>1587.960340865889</v>
+        <v>1573.065234943213</v>
       </c>
       <c r="K12">
-        <v>2275.333821073772</v>
+        <v>2265.022854341375</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.5357727018334</v>
+        <v>123.6192333447178</v>
       </c>
       <c r="G13">
-        <v>-33.31291809010702</v>
+        <v>-34.91072250661362</v>
       </c>
       <c r="H13">
-        <v>1251.643568553016</v>
+        <v>1310.839919547004</v>
       </c>
       <c r="I13">
-        <v>-1086.904746050328</v>
+        <v>-1119.187593260916</v>
       </c>
       <c r="J13">
-        <v>1489.316312132886</v>
+        <v>1442.852562389184</v>
       </c>
       <c r="K13">
-        <v>2498.76634344595</v>
+        <v>2428.690492158122</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.5473426529951</v>
+        <v>107.2864708827653</v>
       </c>
       <c r="G14">
-        <v>-17.22006275874733</v>
+        <v>-16.84850986883153</v>
       </c>
       <c r="H14">
-        <v>1343.276422159391</v>
+        <v>1376.741299536359</v>
       </c>
       <c r="I14">
-        <v>-1074.501815412252</v>
+        <v>-1097.192066507857</v>
       </c>
       <c r="J14">
-        <v>1486.815523916098</v>
+        <v>1355.65619606533</v>
       </c>
       <c r="K14">
-        <v>2701.595791407934</v>
+        <v>2676.798639869368</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.31569458274599</v>
+        <v>103.5203247264349</v>
       </c>
       <c r="G15">
-        <v>-0.9012425484613327</v>
+        <v>-0.928678812368386</v>
       </c>
       <c r="H15">
-        <v>1450.603966410118</v>
+        <v>1380.359486909083</v>
       </c>
       <c r="I15">
-        <v>-1073.242983051153</v>
+        <v>-1054.441125014523</v>
       </c>
       <c r="J15">
-        <v>1415.491402164277</v>
+        <v>1362.825812635526</v>
       </c>
       <c r="K15">
-        <v>2731.959150724841</v>
+        <v>2790.451536478277</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.22611998299701</v>
+        <v>89.60779547505088</v>
       </c>
       <c r="G16">
-        <v>16.3453894469107</v>
+        <v>14.86020493143105</v>
       </c>
       <c r="H16">
-        <v>1371.948545435767</v>
+        <v>1369.737207620682</v>
       </c>
       <c r="I16">
-        <v>-1035.296931414184</v>
+        <v>-1042.773609307769</v>
       </c>
       <c r="J16">
-        <v>1300.532769264957</v>
+        <v>1309.120348842918</v>
       </c>
       <c r="K16">
-        <v>2988.547511661186</v>
+        <v>2958.1402005199</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.76372033272031</v>
+        <v>89.08933023218484</v>
       </c>
       <c r="G17">
-        <v>31.60915085833602</v>
+        <v>31.37360328616256</v>
       </c>
       <c r="H17">
-        <v>1459.596565293517</v>
+        <v>1510.914392962926</v>
       </c>
       <c r="I17">
-        <v>-989.5708076013732</v>
+        <v>-958.9269646596957</v>
       </c>
       <c r="J17">
-        <v>1264.569134952752</v>
+        <v>1271.673541515991</v>
       </c>
       <c r="K17">
-        <v>2904.196994002038</v>
+        <v>2939.570260353469</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.50068352370457</v>
+        <v>79.34834873661367</v>
       </c>
       <c r="G18">
-        <v>46.61570294085219</v>
+        <v>47.63093753454623</v>
       </c>
       <c r="H18">
-        <v>1496.553773636062</v>
+        <v>1477.749275226027</v>
       </c>
       <c r="I18">
-        <v>-894.5388998596379</v>
+        <v>-945.6729525616868</v>
       </c>
       <c r="J18">
-        <v>1171.66868477749</v>
+        <v>1170.931073454537</v>
       </c>
       <c r="K18">
-        <v>3122.484555708145</v>
+        <v>2915.594831521172</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.70156397809578</v>
+        <v>80.65726871516037</v>
       </c>
       <c r="G19">
-        <v>63.98364002646766</v>
+        <v>61.92985731033457</v>
       </c>
       <c r="H19">
-        <v>1497.135523475399</v>
+        <v>1496.453130856945</v>
       </c>
       <c r="I19">
-        <v>-854.2240919771065</v>
+        <v>-871.1614448678456</v>
       </c>
       <c r="J19">
-        <v>1224.440633782408</v>
+        <v>1227.319189114918</v>
       </c>
       <c r="K19">
-        <v>3137.823468775912</v>
+        <v>3010.219369934168</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.99389231600915</v>
+        <v>71.74097666377493</v>
       </c>
       <c r="G20">
-        <v>81.93479478919308</v>
+        <v>84.74092240991864</v>
       </c>
       <c r="H20">
-        <v>1500.767585024864</v>
+        <v>1493.68797360112</v>
       </c>
       <c r="I20">
-        <v>-822.6219992106725</v>
+        <v>-868.357349154736</v>
       </c>
       <c r="J20">
-        <v>1131.818097785763</v>
+        <v>1074.769423223472</v>
       </c>
       <c r="K20">
-        <v>3101.488822200952</v>
+        <v>3306.688748793254</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.66117513370021</v>
+        <v>74.14867006647646</v>
       </c>
       <c r="G21">
-        <v>99.12601844298227</v>
+        <v>100.9421938306283</v>
       </c>
       <c r="H21">
-        <v>1588.744386027532</v>
+        <v>1627.721619369998</v>
       </c>
       <c r="I21">
-        <v>-784.3050805401754</v>
+        <v>-792.0550655836068</v>
       </c>
       <c r="J21">
-        <v>1128.891728174841</v>
+        <v>1076.847282469359</v>
       </c>
       <c r="K21">
-        <v>3303.479513381437</v>
+        <v>3250.118487904258</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.58676639192446</v>
+        <v>71.04016232534831</v>
       </c>
       <c r="G22">
-        <v>112.5037058006144</v>
+        <v>117.293254091522</v>
       </c>
       <c r="H22">
-        <v>1655.101201520548</v>
+        <v>1602.3968922644</v>
       </c>
       <c r="I22">
-        <v>-733.938708193152</v>
+        <v>-760.3084985830748</v>
       </c>
       <c r="J22">
-        <v>1065.781822487908</v>
+        <v>993.2842989478901</v>
       </c>
       <c r="K22">
-        <v>3336.820719714517</v>
+        <v>3198.950720894436</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.1625970852426</v>
+        <v>65.23944384525413</v>
       </c>
       <c r="G23">
-        <v>126.3083700011514</v>
+        <v>136.8799368740324</v>
       </c>
       <c r="H23">
-        <v>1714.252749171153</v>
+        <v>1629.099882618159</v>
       </c>
       <c r="I23">
-        <v>-679.4559398871229</v>
+        <v>-708.4128920048331</v>
       </c>
       <c r="J23">
-        <v>1006.639281215568</v>
+        <v>1003.786417772734</v>
       </c>
       <c r="K23">
-        <v>3074.716571159231</v>
+        <v>3269.599680505164</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.74244378441274</v>
+        <v>65.257359129449</v>
       </c>
       <c r="G24">
-        <v>150.3464209008096</v>
+        <v>154.5287559577401</v>
       </c>
       <c r="H24">
-        <v>1702.532330078348</v>
+        <v>1603.564657243291</v>
       </c>
       <c r="I24">
-        <v>-624.6475899005021</v>
+        <v>-672.9094232405081</v>
       </c>
       <c r="J24">
-        <v>930.9355702000673</v>
+        <v>954.3857623940743</v>
       </c>
       <c r="K24">
-        <v>3084.931079220183</v>
+        <v>3234.52645073156</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.55414896170986</v>
+        <v>61.01718277561053</v>
       </c>
       <c r="G25">
-        <v>162.8477379330893</v>
+        <v>160.0471993371166</v>
       </c>
       <c r="H25">
-        <v>1689.377836288893</v>
+        <v>1622.318135470509</v>
       </c>
       <c r="I25">
-        <v>-580.4196252261005</v>
+        <v>-593.3771423407583</v>
       </c>
       <c r="J25">
-        <v>872.6665077319986</v>
+        <v>852.596990223291</v>
       </c>
       <c r="K25">
-        <v>3022.080448407203</v>
+        <v>3120.896929776346</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.07718703783747</v>
+        <v>56.84394273323268</v>
       </c>
       <c r="G26">
-        <v>178.8256003166367</v>
+        <v>188.6632290488574</v>
       </c>
       <c r="H26">
-        <v>1659.353158491096</v>
+        <v>1631.33963828612</v>
       </c>
       <c r="I26">
-        <v>-532.3137565665078</v>
+        <v>-548.5000997015161</v>
       </c>
       <c r="J26">
-        <v>812.8872500620209</v>
+        <v>824.7332797056388</v>
       </c>
       <c r="K26">
-        <v>3190.717965559609</v>
+        <v>3190.065872443306</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.70924921088214</v>
+        <v>57.33405313512689</v>
       </c>
       <c r="G27">
-        <v>190.0462794188215</v>
+        <v>197.9539680216108</v>
       </c>
       <c r="H27">
-        <v>1723.620481247973</v>
+        <v>1651.512043020966</v>
       </c>
       <c r="I27">
-        <v>-512.3924582206334</v>
+        <v>-478.2257958398794</v>
       </c>
       <c r="J27">
-        <v>818.6236192883013</v>
+        <v>764.5495172541766</v>
       </c>
       <c r="K27">
-        <v>3073.209859477096</v>
+        <v>3152.371678513955</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.77894685892937</v>
+        <v>53.63843747476719</v>
       </c>
       <c r="G28">
-        <v>220.884508472146</v>
+        <v>222.4242952465924</v>
       </c>
       <c r="H28">
-        <v>1726.361593412821</v>
+        <v>1723.519535835029</v>
       </c>
       <c r="I28">
-        <v>-452.179608432829</v>
+        <v>-446.5882287186416</v>
       </c>
       <c r="J28">
-        <v>745.3134873082614</v>
+        <v>702.7328549012045</v>
       </c>
       <c r="K28">
-        <v>3000.199354930893</v>
+        <v>2920.878664297577</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.13797036480052</v>
+        <v>54.12682677290769</v>
       </c>
       <c r="G29">
-        <v>220.409225549386</v>
+        <v>234.4962719873523</v>
       </c>
       <c r="H29">
-        <v>1753.682670260636</v>
+        <v>1697.911402735031</v>
       </c>
       <c r="I29">
-        <v>-365.8878743341851</v>
+        <v>-382.9872559080722</v>
       </c>
       <c r="J29">
-        <v>671.6717027684343</v>
+        <v>682.4101162498073</v>
       </c>
       <c r="K29">
-        <v>2903.809632343031</v>
+        <v>2833.875593761596</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.76150245610945</v>
+        <v>52.46295200740789</v>
       </c>
       <c r="G30">
-        <v>253.2604734197932</v>
+        <v>251.1209341567705</v>
       </c>
       <c r="H30">
-        <v>1793.673449145767</v>
+        <v>1703.538141400746</v>
       </c>
       <c r="I30">
-        <v>-310.7782776925437</v>
+        <v>-313.706711059132</v>
       </c>
       <c r="J30">
-        <v>646.4572979607653</v>
+        <v>654.8474695241459</v>
       </c>
       <c r="K30">
-        <v>2752.21231105175</v>
+        <v>2654.768182994485</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.85734969415124</v>
+        <v>50.65411821264733</v>
       </c>
       <c r="G31">
-        <v>262.0746124326279</v>
+        <v>275.0694158482904</v>
       </c>
       <c r="H31">
-        <v>1739.641663975408</v>
+        <v>1853.185679699117</v>
       </c>
       <c r="I31">
-        <v>-272.7201009156517</v>
+        <v>-268.3539685731455</v>
       </c>
       <c r="J31">
-        <v>607.9179266107475</v>
+        <v>573.0621934325521</v>
       </c>
       <c r="K31">
-        <v>2602.946864212365</v>
+        <v>2671.197459061862</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.00458318940805</v>
+        <v>50.18974596743539</v>
       </c>
       <c r="G32">
-        <v>270.0255841694386</v>
+        <v>283.1830111550732</v>
       </c>
       <c r="H32">
-        <v>1772.070917835065</v>
+        <v>1784.526191830563</v>
       </c>
       <c r="I32">
-        <v>-213.5664577064658</v>
+        <v>-215.7767849867801</v>
       </c>
       <c r="J32">
-        <v>561.6989443057419</v>
+        <v>525.9222820146291</v>
       </c>
       <c r="K32">
-        <v>2459.311370055235</v>
+        <v>2512.505749994019</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.30651357769555</v>
+        <v>51.8327413111356</v>
       </c>
       <c r="G33">
-        <v>305.5881240634662</v>
+        <v>281.9248288558779</v>
       </c>
       <c r="H33">
-        <v>1880.680450019055</v>
+        <v>1813.71164510861</v>
       </c>
       <c r="I33">
-        <v>-142.2388234206833</v>
+        <v>-142.9856368980225</v>
       </c>
       <c r="J33">
-        <v>469.712121340801</v>
+        <v>479.1352813704419</v>
       </c>
       <c r="K33">
-        <v>2358.798072549871</v>
+        <v>2324.390719161109</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.43266460545731</v>
+        <v>49.83417624350635</v>
       </c>
       <c r="G34">
-        <v>315.5445596911659</v>
+        <v>324.0382410649658</v>
       </c>
       <c r="H34">
-        <v>1741.30398198998</v>
+        <v>1766.273313346049</v>
       </c>
       <c r="I34">
-        <v>-86.3153053349358</v>
+        <v>-86.34885755179562</v>
       </c>
       <c r="J34">
-        <v>455.8286802320824</v>
+        <v>449.0722736884958</v>
       </c>
       <c r="K34">
-        <v>2121.384667853655</v>
+        <v>2166.997372196866</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.60465056135692</v>
+        <v>47.22146301064014</v>
       </c>
       <c r="G35">
-        <v>313.5464474776432</v>
+        <v>345.1070801510002</v>
       </c>
       <c r="H35">
-        <v>1849.745331653833</v>
+        <v>1791.670351394119</v>
       </c>
       <c r="I35">
-        <v>-18.9807254093659</v>
+        <v>-19.61503687519351</v>
       </c>
       <c r="J35">
-        <v>395.9747749014745</v>
+        <v>401.0379022184468</v>
       </c>
       <c r="K35">
-        <v>2048.130764199562</v>
+        <v>2001.82525952964</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.60190999765239</v>
+        <v>45.95656880901682</v>
       </c>
       <c r="G36">
-        <v>336.6060477627388</v>
+        <v>330.5684886923379</v>
       </c>
       <c r="H36">
-        <v>1750.104137875539</v>
+        <v>1814.376061060337</v>
       </c>
       <c r="I36">
-        <v>48.97977706434052</v>
+        <v>47.76571801685228</v>
       </c>
       <c r="J36">
-        <v>359.6347573988979</v>
+        <v>352.4562251691117</v>
       </c>
       <c r="K36">
-        <v>1768.229074220579</v>
+        <v>1859.524802999485</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.20105800654932</v>
+        <v>48.70081733171052</v>
       </c>
       <c r="G37">
-        <v>367.7666870512729</v>
+        <v>370.4577461682901</v>
       </c>
       <c r="H37">
-        <v>1813.879249534794</v>
+        <v>1924.248297413712</v>
       </c>
       <c r="I37">
-        <v>111.9157554653771</v>
+        <v>110.1151742068548</v>
       </c>
       <c r="J37">
-        <v>309.2343072803101</v>
+        <v>283.3030739285734</v>
       </c>
       <c r="K37">
-        <v>1624.965033267582</v>
+        <v>1636.89015972058</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.01689265942868</v>
+        <v>46.16666257489085</v>
       </c>
       <c r="G38">
-        <v>372.7261083134481</v>
+        <v>396.9801110521835</v>
       </c>
       <c r="H38">
-        <v>1906.366129678612</v>
+        <v>1814.720461263921</v>
       </c>
       <c r="I38">
-        <v>191.5419307345659</v>
+        <v>179.6463382001427</v>
       </c>
       <c r="J38">
-        <v>249.6143740786015</v>
+        <v>249.3794193457811</v>
       </c>
       <c r="K38">
-        <v>1369.992292402093</v>
+        <v>1401.779810920578</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.5896396437823</v>
+        <v>44.97057649463473</v>
       </c>
       <c r="G39">
-        <v>404.8542819133699</v>
+        <v>410.2668515526269</v>
       </c>
       <c r="H39">
-        <v>1873.965678156792</v>
+        <v>1814.984476792778</v>
       </c>
       <c r="I39">
-        <v>262.2867416056702</v>
+        <v>259.2269763450716</v>
       </c>
       <c r="J39">
-        <v>195.8107196417354</v>
+        <v>204.7955609105579</v>
       </c>
       <c r="K39">
-        <v>1201.256843433879</v>
+        <v>1136.390406254322</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.05476412854789</v>
+        <v>42.48723746230144</v>
       </c>
       <c r="G40">
-        <v>412.611532332548</v>
+        <v>406.473549096766</v>
       </c>
       <c r="H40">
-        <v>1809.01713407423</v>
+        <v>1869.418059842468</v>
       </c>
       <c r="I40">
-        <v>313.7451572028823</v>
+        <v>321.849177024703</v>
       </c>
       <c r="J40">
-        <v>147.6018303534087</v>
+        <v>149.9503041937027</v>
       </c>
       <c r="K40">
-        <v>905.4426556024383</v>
+        <v>932.7337713637676</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.73996507743614</v>
+        <v>43.41241974419067</v>
       </c>
       <c r="G41">
-        <v>446.7054536716282</v>
+        <v>441.8135385365807</v>
       </c>
       <c r="H41">
-        <v>1894.260316560481</v>
+        <v>1921.9875170241</v>
       </c>
       <c r="I41">
-        <v>386.7027604767223</v>
+        <v>405.8094958029136</v>
       </c>
       <c r="J41">
-        <v>106.4763616500734</v>
+        <v>98.19703651788272</v>
       </c>
       <c r="K41">
-        <v>601.3944213846547</v>
+        <v>636.4705214766495</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.5744266003548</v>
+        <v>43.10694372421435</v>
       </c>
       <c r="G42">
-        <v>439.3698128558701</v>
+        <v>429.6205682833163</v>
       </c>
       <c r="H42">
-        <v>1976.309850238076</v>
+        <v>1812.268246174125</v>
       </c>
       <c r="I42">
-        <v>463.1482156256533</v>
+        <v>491.8952616827634</v>
       </c>
       <c r="J42">
-        <v>54.27625201034874</v>
+        <v>52.1643753507135</v>
       </c>
       <c r="K42">
-        <v>330.7358328308894</v>
+        <v>339.1607025992333</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.84775386018276</v>
+        <v>40.70148955078471</v>
       </c>
       <c r="G43">
-        <v>444.7008382934683</v>
+        <v>465.2785855857191</v>
       </c>
       <c r="H43">
-        <v>1860.199611841982</v>
+        <v>1887.626685159276</v>
       </c>
       <c r="I43">
-        <v>545.351224466491</v>
+        <v>567.194458640172</v>
       </c>
       <c r="J43">
-        <v>5.037260924538234</v>
+        <v>5.299580545566932</v>
       </c>
       <c r="K43">
-        <v>34.57401457798675</v>
+        <v>34.82016019252347</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.4926251422981</v>
+        <v>39.9504965805322</v>
       </c>
       <c r="G44">
-        <v>456.1242397272138</v>
+        <v>485.0698819626814</v>
       </c>
       <c r="H44">
-        <v>1878.838201647637</v>
+        <v>1852.828788119814</v>
       </c>
       <c r="I44">
-        <v>622.0836394213916</v>
+        <v>642.0880727522299</v>
       </c>
       <c r="J44">
-        <v>-43.31639141106195</v>
+        <v>-43.73020278519208</v>
       </c>
       <c r="K44">
-        <v>-286.9881369535192</v>
+        <v>-292.8025946788514</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.94406320128576</v>
+        <v>39.72005006711357</v>
       </c>
       <c r="G45">
-        <v>503.85173078103</v>
+        <v>512.0388541063752</v>
       </c>
       <c r="H45">
-        <v>1957.197427082317</v>
+        <v>1869.128329568164</v>
       </c>
       <c r="I45">
-        <v>731.0595738054528</v>
+        <v>751.2731121827663</v>
       </c>
       <c r="J45">
-        <v>-96.52976211916058</v>
+        <v>-88.26906475675338</v>
       </c>
       <c r="K45">
-        <v>-613.0498108880698</v>
+        <v>-637.4838615759764</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.8083252972962</v>
+        <v>38.91031255162272</v>
       </c>
       <c r="G46">
-        <v>495.2154180087379</v>
+        <v>522.9501718509576</v>
       </c>
       <c r="H46">
-        <v>1948.764047618719</v>
+        <v>1932.448832825487</v>
       </c>
       <c r="I46">
-        <v>827.4610252341128</v>
+        <v>823.6396755500145</v>
       </c>
       <c r="J46">
-        <v>-135.8883691561986</v>
+        <v>-137.5903546967036</v>
       </c>
       <c r="K46">
-        <v>-939.8306749547261</v>
+        <v>-991.4433126207467</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.27844330605402</v>
+        <v>38.54869381041075</v>
       </c>
       <c r="G47">
-        <v>540.2356482158314</v>
+        <v>521.1926430901391</v>
       </c>
       <c r="H47">
-        <v>1878.150067070849</v>
+        <v>2004.297444722262</v>
       </c>
       <c r="I47">
-        <v>867.244341284134</v>
+        <v>860.8471184917128</v>
       </c>
       <c r="J47">
-        <v>-184.387092073157</v>
+        <v>-194.225786716902</v>
       </c>
       <c r="K47">
-        <v>-1359.599460573351</v>
+        <v>-1382.413719640805</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.11968264504934</v>
+        <v>40.19222920478465</v>
       </c>
       <c r="G48">
-        <v>558.7800087405326</v>
+        <v>563.2484371159654</v>
       </c>
       <c r="H48">
-        <v>1896.600688123599</v>
+        <v>1881.246996294083</v>
       </c>
       <c r="I48">
-        <v>985.5757648036534</v>
+        <v>1025.409151512968</v>
       </c>
       <c r="J48">
-        <v>-229.8929289316429</v>
+        <v>-226.075472832364</v>
       </c>
       <c r="K48">
-        <v>-1758.998941220151</v>
+        <v>-1722.583212400565</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.34276849159195</v>
+        <v>40.34685976888214</v>
       </c>
       <c r="G49">
-        <v>538.0296136376411</v>
+        <v>571.8272150327875</v>
       </c>
       <c r="H49">
-        <v>1934.173296559487</v>
+        <v>1913.227956522662</v>
       </c>
       <c r="I49">
-        <v>1041.255700300723</v>
+        <v>1072.17768131243</v>
       </c>
       <c r="J49">
-        <v>-297.4733309190803</v>
+        <v>-292.7358541401751</v>
       </c>
       <c r="K49">
-        <v>-2056.902746325614</v>
+        <v>-2155.787572776123</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.92011776529547</v>
+        <v>39.76222970519353</v>
       </c>
       <c r="G50">
-        <v>598.7129813592965</v>
+        <v>573.0551446496577</v>
       </c>
       <c r="H50">
-        <v>1985.131491305413</v>
+        <v>2022.280398672802</v>
       </c>
       <c r="I50">
-        <v>1110.797246071149</v>
+        <v>1128.808505413546</v>
       </c>
       <c r="J50">
-        <v>-331.4337229302782</v>
+        <v>-343.6950626657432</v>
       </c>
       <c r="K50">
-        <v>-2505.405524221496</v>
+        <v>-2571.258882688067</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.12821624272084</v>
+        <v>36.8256023430872</v>
       </c>
       <c r="G51">
-        <v>611.3521704975331</v>
+        <v>575.5777770895877</v>
       </c>
       <c r="H51">
-        <v>2037.830641884669</v>
+        <v>1874.843687832059</v>
       </c>
       <c r="I51">
-        <v>1274.275675089126</v>
+        <v>1276.552307738686</v>
       </c>
       <c r="J51">
-        <v>-371.716321976359</v>
+        <v>-365.7963078418806</v>
       </c>
       <c r="K51">
-        <v>-2820.048106903256</v>
+        <v>-2801.589014808648</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.04988821111913</v>
+        <v>35.83963080326514</v>
       </c>
       <c r="G52">
-        <v>611.9370731915187</v>
+        <v>623.536500586811</v>
       </c>
       <c r="H52">
-        <v>1966.276789827097</v>
+        <v>1927.684068628508</v>
       </c>
       <c r="I52">
-        <v>1399.435834041471</v>
+        <v>1388.003002820338</v>
       </c>
       <c r="J52">
-        <v>-416.4406418231971</v>
+        <v>-442.5160097026602</v>
       </c>
       <c r="K52">
-        <v>-3303.971627986835</v>
+        <v>-3352.827442255284</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.51220756724349</v>
+        <v>37.13752061737046</v>
       </c>
       <c r="G53">
-        <v>628.6154672735521</v>
+        <v>612.0168331262807</v>
       </c>
       <c r="H53">
-        <v>2025.750856856355</v>
+        <v>1971.972951686898</v>
       </c>
       <c r="I53">
-        <v>1441.963565176336</v>
+        <v>1432.340161028784</v>
       </c>
       <c r="J53">
-        <v>-474.8443095082866</v>
+        <v>-498.7288545423735</v>
       </c>
       <c r="K53">
-        <v>-3691.842964748528</v>
+        <v>-3921.330482384062</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.13718888561546</v>
+        <v>36.25211732482419</v>
       </c>
       <c r="G54">
-        <v>647.3406986343473</v>
+        <v>663.8355820879408</v>
       </c>
       <c r="H54">
-        <v>1930.787624417546</v>
+        <v>1958.305536370928</v>
       </c>
       <c r="I54">
-        <v>1481.216984618253</v>
+        <v>1512.298480514284</v>
       </c>
       <c r="J54">
-        <v>-548.5858181546471</v>
+        <v>-534.3279906347406</v>
       </c>
       <c r="K54">
-        <v>-4194.380961084414</v>
+        <v>-4213.656264620262</v>
       </c>
     </row>
   </sheetData>
